--- a/src/main/resources/technologyStack/interviewSkills/技术点-面试.xlsx
+++ b/src/main/resources/technologyStack/interviewSkills/技术点-面试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CAP" sheetId="4" r:id="rId1"/>
@@ -13644,8 +13644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13981,7 +13981,7 @@
   <dimension ref="B2:N222"/>
   <sheetViews>
     <sheetView topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K208" sqref="K208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15431,7 +15431,7 @@
   <dimension ref="B3:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16742,8 +16742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V453"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17735,8 +17735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
